--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,7 +281,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -673,6 +673,10 @@
   </si>
   <si>
     <t>CarePlan.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>ケアプランの人間に優しい名前 / Human-friendly name for the care plan</t>
@@ -3991,13 +3995,13 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4077,7 +4081,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4100,17 +4104,17 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4159,7 +4163,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4180,7 +4184,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4188,11 +4192,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4211,13 +4215,13 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4268,7 +4272,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>86</v>
@@ -4283,21 +4287,21 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4320,16 +4324,16 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4379,7 +4383,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4394,25 +4398,25 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4431,19 +4435,19 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4492,7 +4496,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4507,25 +4511,25 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4544,13 +4548,13 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4601,7 +4605,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4616,13 +4620,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4630,7 +4634,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4653,16 +4657,16 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4712,7 +4716,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4727,13 +4731,13 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4741,7 +4745,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4764,16 +4768,16 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4823,7 +4827,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4852,7 +4856,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4875,17 +4879,17 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -4934,7 +4938,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4949,13 +4953,13 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4963,7 +4967,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4986,19 +4990,19 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5047,7 +5051,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5062,21 +5066,21 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5099,19 +5103,19 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5160,7 +5164,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5175,7 +5179,7 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5189,7 +5193,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5212,19 +5216,19 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5273,7 +5277,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5291,18 +5295,18 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5325,17 +5329,17 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5384,7 +5388,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5396,13 +5400,13 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
@@ -5413,7 +5417,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5436,13 +5440,13 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5493,7 +5497,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5511,7 +5515,7 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
@@ -5522,7 +5526,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5551,7 +5555,7 @@
         <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>135</v>
@@ -5604,7 +5608,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5622,7 +5626,7 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -5633,11 +5637,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5659,10 +5663,10 @@
         <v>132</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>135</v>
@@ -5717,7 +5721,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5746,7 +5750,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5772,13 +5776,13 @@
         <v>202</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5807,10 +5811,10 @@
         <v>207</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5828,7 +5832,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5857,7 +5861,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5880,19 +5884,19 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -5941,7 +5945,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5956,10 +5960,10 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
@@ -5970,7 +5974,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5993,19 +5997,19 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6054,7 +6058,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6072,18 +6076,18 @@
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6106,19 +6110,19 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6167,7 +6171,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6176,16 +6180,16 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
@@ -6196,7 +6200,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6219,17 +6223,17 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6278,7 +6282,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6287,7 +6291,7 @@
         <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>98</v>
@@ -6296,7 +6300,7 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -6307,7 +6311,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6330,13 +6334,13 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6387,7 +6391,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6405,7 +6409,7 @@
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
@@ -6416,7 +6420,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6445,7 +6449,7 @@
         <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>135</v>
@@ -6498,7 +6502,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6516,7 +6520,7 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
@@ -6527,11 +6531,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6553,10 +6557,10 @@
         <v>132</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>135</v>
@@ -6611,7 +6615,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6640,7 +6644,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6666,14 +6670,14 @@
         <v>106</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -6701,10 +6705,10 @@
         <v>187</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -6722,7 +6726,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6740,7 +6744,7 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6751,7 +6755,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6774,17 +6778,17 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -6833,7 +6837,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6862,7 +6866,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6891,13 +6895,13 @@
         <v>160</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>162</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -6946,7 +6950,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6975,7 +6979,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7001,16 +7005,16 @@
         <v>202</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7038,10 +7042,10 @@
         <v>207</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7059,7 +7063,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7074,21 +7078,21 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7114,13 +7118,13 @@
         <v>202</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7149,10 +7153,10 @@
         <v>207</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7170,7 +7174,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7185,7 +7189,7 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -7199,7 +7203,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7222,16 +7226,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7281,7 +7285,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7296,7 +7300,7 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -7310,7 +7314,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7333,17 +7337,17 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7392,7 +7396,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7410,7 +7414,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7421,7 +7425,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7447,16 +7451,16 @@
         <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7484,10 +7488,10 @@
         <v>187</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7505,7 +7509,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>86</v>
@@ -7520,21 +7524,21 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7560,13 +7564,13 @@
         <v>202</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7616,7 +7620,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7631,7 +7635,7 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -7645,7 +7649,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7668,70 +7672,70 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Q53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Q53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7746,10 +7750,10 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -7760,7 +7764,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7783,17 +7787,17 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -7842,7 +7846,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7857,21 +7861,21 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7894,19 +7898,19 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -7955,7 +7959,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7973,18 +7977,18 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8007,19 +8011,19 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8068,7 +8072,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8083,21 +8087,21 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8120,13 +8124,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8156,10 +8160,10 @@
         <v>207</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8177,7 +8181,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8195,22 +8199,22 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8229,17 +8233,17 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8288,7 +8292,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8306,18 +8310,18 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8340,13 +8344,13 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8397,7 +8401,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8415,18 +8419,18 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8449,13 +8453,13 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8506,7 +8510,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8524,18 +8528,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8558,17 +8562,17 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -8617,7 +8621,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8632,16 +8636,16 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
